--- a/excel/all_0_5.xlsx
+++ b/excel/all_0_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\child_growth_chart\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingxl\Desktop\repos\child_growth_chart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEC45D1-F76B-49A6-A370-B85BE97AF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DA78BE-E7CE-4A47-B030-23CF5AA5EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Length-Height" sheetId="1" r:id="rId1"/>
@@ -630,9 +630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,7 +670,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -776,7 +776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,7 +918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4791,7 +4791,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4915,6 +4915,9 @@
       </c>
       <c r="S2">
         <v>5.0999999999999996</v>
+      </c>
+      <c r="T2">
+        <v>4.55</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -8467,7 +8470,7 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8597,6 +8600,9 @@
       </c>
       <c r="T2">
         <v>38.4</v>
+      </c>
+      <c r="U2">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -12328,7 +12334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD82611D-1CDA-436C-834B-DD1AFCE36624}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>

--- a/excel/all_0_5.xlsx
+++ b/excel/all_0_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingxl\Desktop\repos\child_growth_chart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DA78BE-E7CE-4A47-B030-23CF5AA5EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D31C3C-1561-4EAF-92E5-A59A5B225736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="3938" windowWidth="21600" windowHeight="11332" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Length-Height" sheetId="1" r:id="rId1"/>
@@ -630,9 +630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,7 +670,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -776,7 +776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,7 +918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -4790,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06758079-3F21-4BEE-8454-4278B09BFBAD}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4977,6 +4977,9 @@
       </c>
       <c r="S3">
         <v>6.6</v>
+      </c>
+      <c r="T3">
+        <v>5.66</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
